--- a/studios/studio4/Prob1.xlsx
+++ b/studios/studio4/Prob1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roncytron/git/cse247-f16-students/studios/studio4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Arvind/git/cse247-f17-students-aradhak/studios/studio4/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -6417,11 +6417,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="553396384"/>
-        <c:axId val="553400944"/>
+        <c:axId val="-1659946592"/>
+        <c:axId val="-1653076896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="553396384"/>
+        <c:axId val="-1659946592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6477,12 +6477,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="553400944"/>
+        <c:crossAx val="-1653076896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="553400944"/>
+        <c:axId val="-1653076896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6538,7 +6538,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="553396384"/>
+        <c:crossAx val="-1659946592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7476,7 +7476,7 @@
   <dimension ref="A1:F513"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
